--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vuminhduc796/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vuminhduc796/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C075E1-2D66-6048-9631-50514131AE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58A4FE8-8E16-5B4D-9E52-E5F258BEB854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" activeTab="1" xr2:uid="{8BEEF3A8-BB2E-F448-AB49-47C9A6F7F206}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{8BEEF3A8-BB2E-F448-AB49-47C9A6F7F206}"/>
   </bookViews>
   <sheets>
     <sheet name="User Evaluation" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="176">
   <si>
     <t>Time taken to finish the task for each run</t>
   </si>
@@ -572,7 +572,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -628,8 +628,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,8 +656,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -720,11 +740,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,6 +844,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3602,10 +3665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4CCD15-9F4D-C94F-AA46-DB482A0526EA}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3685,10 +3748,10 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3726,33 +3789,33 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>95</v>
       </c>
-      <c r="C4" s="3">
+      <c r="E4" s="3">
         <v>120</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3">
+      <c r="H4" s="35">
+        <v>132</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
         <v>168</v>
       </c>
-      <c r="K4" s="3">
-        <v>132</v>
-      </c>
-      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3">
+        <v>60</v>
+      </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3">
-        <v>60</v>
-      </c>
+      <c r="R4" s="3"/>
       <c r="S4" s="3">
         <v>111</v>
       </c>
@@ -3764,35 +3827,35 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3">
+        <v>155</v>
+      </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>135</v>
       </c>
-      <c r="E5" s="3">
-        <v>155</v>
-      </c>
-      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36">
+        <v>158</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3">
-        <v>158</v>
-      </c>
+      <c r="L5" s="3"/>
       <c r="M5" s="3">
         <v>242</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3">
+        <v>53</v>
+      </c>
       <c r="O5" s="3"/>
-      <c r="P5" s="3">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3">
         <v>123</v>
       </c>
-      <c r="Q5" s="3">
-        <v>53</v>
-      </c>
-      <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5">
         <v>2</v>
@@ -3803,33 +3866,33 @@
         <v>3</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>120</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3">
-        <v>120</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3">
         <v>190</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="3">
         <v>134</v>
       </c>
-      <c r="I6" s="3">
+      <c r="K6" s="3">
         <v>125</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3">
         <v>68</v>
       </c>
-      <c r="O6" s="3">
+      <c r="Q6" s="3">
         <v>70</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6">
@@ -3841,32 +3904,32 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
+        <v>151</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>110</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>151</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="H7" s="35"/>
+      <c r="I7" s="36">
+        <v>174</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3">
         <v>132</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
-        <v>174</v>
-      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3">
         <v>115</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
       <c r="S7" s="3">
         <v>132</v>
       </c>
@@ -3880,32 +3943,32 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
+        <v>104</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>132</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
-        <v>104</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
         <v>148</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
       <c r="M8" s="3">
         <v>236</v>
       </c>
       <c r="N8" s="3">
+        <v>67</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3">
         <v>83</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <v>67</v>
-      </c>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8">
@@ -3918,33 +3981,33 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
         <v>145</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
       <c r="G9" s="3">
         <v>172</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="35">
         <v>142</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
+      <c r="I9" s="36"/>
+      <c r="J9" s="3">
         <v>142</v>
       </c>
+      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3">
+        <v>72</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3">
         <v>96</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3">
-        <v>72</v>
-      </c>
+      <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9">
         <v>6</v>
@@ -3954,35 +4017,35 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5">
         <v>132</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
         <v>196</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="H10" s="35"/>
+      <c r="I10" s="36">
+        <v>182</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
         <v>143</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
-        <v>182</v>
-      </c>
+      <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="N10" s="3">
+        <v>71</v>
+      </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="3">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
         <v>118</v>
       </c>
-      <c r="Q10" s="3">
-        <v>71</v>
-      </c>
-      <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10">
         <v>7</v>
@@ -3992,31 +4055,31 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3">
+        <v>112</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
         <v>134</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3">
-        <v>112</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
+      <c r="H11" s="35">
+        <v>163</v>
+      </c>
+      <c r="I11" s="36"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
         <v>172</v>
       </c>
-      <c r="K11" s="3">
-        <v>163</v>
-      </c>
-      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3">
         <v>81</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3">
@@ -4030,21 +4093,21 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="3">
+        <v>158</v>
+      </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
         <v>151</v>
       </c>
-      <c r="E12" s="3">
-        <v>158</v>
-      </c>
-      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3">
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="3">
         <v>156</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3">
@@ -4052,13 +4115,13 @@
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3">
+        <v>78</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3">
         <v>101</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3">
-        <v>78</v>
-      </c>
+      <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12">
         <v>9</v>
@@ -4068,33 +4131,33 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
         <v>126</v>
       </c>
-      <c r="C13" s="3">
+      <c r="E13" s="3">
         <v>112</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
+      <c r="H13" s="35">
+        <v>126</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
         <v>175</v>
       </c>
-      <c r="K13" s="3">
-        <v>126</v>
-      </c>
-      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <v>68</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3">
-        <v>68</v>
-      </c>
+      <c r="R13" s="3"/>
       <c r="S13" s="3">
         <v>127</v>
       </c>
@@ -4106,35 +4169,35 @@
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3">
+        <v>163</v>
+      </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
         <v>137</v>
       </c>
-      <c r="E14" s="3">
-        <v>163</v>
-      </c>
-      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36">
+        <v>157</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3">
-        <v>157</v>
-      </c>
+      <c r="L14" s="3"/>
       <c r="M14" s="3">
         <v>218</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="3">
+        <v>63</v>
+      </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="3">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
         <v>107</v>
       </c>
-      <c r="Q14" s="3">
-        <v>63</v>
-      </c>
-      <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14">
         <v>11</v>
@@ -4145,33 +4208,33 @@
         <v>12</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3">
+        <v>129</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3">
-        <v>129</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>201</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="3">
         <v>162</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>126</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3">
         <v>78</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>86</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15">
@@ -4183,32 +4246,32 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
+        <v>169</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
         <v>119</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
-        <v>169</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
+      <c r="H16" s="35"/>
+      <c r="I16" s="36">
+        <v>128</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
         <v>137</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3">
-        <v>128</v>
-      </c>
+      <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3">
         <v>94</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
       <c r="S16" s="3">
         <v>140</v>
       </c>
@@ -4222,32 +4285,32 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3">
+        <v>113</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>146</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <v>113</v>
-      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3">
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
         <v>154</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
       <c r="M17" s="3">
         <v>233</v>
       </c>
       <c r="N17" s="3">
+        <v>72</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3">
         <v>89</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3">
-        <v>72</v>
-      </c>
+      <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17">
@@ -4260,33 +4323,33 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
         <v>120</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
       <c r="G18" s="3">
         <v>209</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="35">
+        <v>138</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="3">
         <v>135</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3">
-        <v>138</v>
-      </c>
+      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3">
+        <v>83</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3">
         <v>91</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3">
-        <v>83</v>
-      </c>
+      <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18">
         <v>15</v>
@@ -4296,35 +4359,35 @@
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5">
         <v>102</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3">
         <v>222</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3">
+      <c r="H19" s="35"/>
+      <c r="I19" s="36">
+        <v>163</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
         <v>118</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3">
-        <v>163</v>
-      </c>
+      <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="3">
+        <v>76</v>
+      </c>
       <c r="O19" s="3"/>
-      <c r="P19" s="3">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3">
         <v>96</v>
       </c>
-      <c r="Q19" s="3">
-        <v>76</v>
-      </c>
-      <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19">
         <v>16</v>
@@ -4334,31 +4397,31 @@
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3">
+        <v>125</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="3">
         <v>129</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3">
-        <v>125</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3">
+      <c r="H20" s="35">
+        <v>146</v>
+      </c>
+      <c r="I20" s="36"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
         <v>152</v>
       </c>
-      <c r="K20" s="3">
-        <v>146</v>
-      </c>
-      <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3">
         <v>74</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3">
@@ -4372,21 +4435,21 @@
       <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="3">
+        <v>142</v>
+      </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3">
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
         <v>132</v>
       </c>
-      <c r="E21" s="3">
-        <v>142</v>
-      </c>
-      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3">
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="3">
         <v>148</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3">
@@ -4394,13 +4457,13 @@
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3">
+        <v>85</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3">
         <v>112</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3">
-        <v>85</v>
-      </c>
+      <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21">
         <v>18</v>
@@ -4412,71 +4475,69 @@
       </c>
       <c r="B22" s="9">
         <f>AVERAGE(B4:B21)</f>
+        <v>156.33333333333334</v>
+      </c>
+      <c r="C22" s="9">
+        <f>AVERAGE(C4:C21)</f>
+        <v>117.16666666666667</v>
+      </c>
+      <c r="D22" s="9">
+        <f>AVERAGE(D4:D21)</f>
         <v>114</v>
       </c>
-      <c r="C22" s="9">
-        <f t="shared" ref="C22:S22" si="0">AVERAGE(C4:C21)</f>
+      <c r="E22" s="9">
+        <f>AVERAGE(E4:E21)</f>
         <v>128.83333333333334</v>
       </c>
-      <c r="D22" s="9">
-        <f t="shared" si="0"/>
+      <c r="F22" s="9">
+        <f>AVERAGE(F4:F21)</f>
         <v>136.66666666666666</v>
       </c>
-      <c r="E22" s="9">
-        <f t="shared" si="0"/>
-        <v>156.33333333333334</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" si="0"/>
-        <v>117.16666666666667</v>
-      </c>
       <c r="G22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G22:T22" si="0">AVERAGE(G4:G21)</f>
         <v>198.33333333333334</v>
       </c>
-      <c r="H22" s="9">
-        <f t="shared" si="0"/>
+      <c r="H22" s="37">
+        <v>141.16999999999999</v>
+      </c>
+      <c r="I22" s="38">
+        <v>160.33000000000001</v>
+      </c>
+      <c r="J22" s="9">
+        <f>AVERAGE(J4:J21)</f>
         <v>146.16666666666666</v>
       </c>
-      <c r="I22" s="9">
-        <f t="shared" si="0"/>
+      <c r="K22" s="9">
+        <f>AVERAGE(K4:K21)</f>
         <v>130.16666666666666</v>
       </c>
-      <c r="J22" s="9">
-        <f t="shared" si="0"/>
+      <c r="L22" s="9">
+        <f>AVERAGE(L4:L21)</f>
         <v>161.5</v>
-      </c>
-      <c r="K22" s="9">
-        <f t="shared" si="0"/>
-        <v>141.16666666666666</v>
-      </c>
-      <c r="L22" s="9">
-        <f t="shared" si="0"/>
-        <v>160.33333333333334</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(N4:N21)</f>
+        <v>67</v>
+      </c>
+      <c r="O22" s="9">
+        <f>AVERAGE(O4:O21)</f>
+        <v>74.333333333333329</v>
+      </c>
+      <c r="P22" s="9">
+        <f>AVERAGE(P4:P21)</f>
         <v>78.833333333333329</v>
       </c>
-      <c r="O22" s="9">
-        <f t="shared" si="0"/>
+      <c r="Q22" s="9">
+        <f>AVERAGE(Q4:Q21)</f>
         <v>92.666666666666671</v>
       </c>
-      <c r="P22" s="9">
-        <f t="shared" si="0"/>
+      <c r="R22" s="9">
+        <f>AVERAGE(R4:R21)</f>
         <v>108.83333333333333</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="R22" s="9">
-        <f t="shared" si="0"/>
-        <v>74.333333333333329</v>
       </c>
       <c r="S22" s="9">
         <f t="shared" si="0"/>
@@ -4489,83 +4550,421 @@
       </c>
       <c r="B23">
         <f>STDEV(B4:B21)</f>
+        <v>9.4162979278836882</v>
+      </c>
+      <c r="C23">
+        <f>STDEV(C4:C21)</f>
+        <v>9.2394083504663129</v>
+      </c>
+      <c r="D23">
+        <f>STDEV(D4:D21)</f>
         <v>14.240786495134319</v>
       </c>
-      <c r="C23">
-        <f t="shared" ref="C23:S23" si="1">STDEV(C4:C21)</f>
+      <c r="E23">
+        <f>STDEV(E4:E21)</f>
         <v>11.771434350437787</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
+      <c r="F23">
+        <f>STDEV(F4:F21)</f>
         <v>10.745541711178021</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>9.4162979278836882</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>9.2394083504663129</v>
-      </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G23:T23" si="1">STDEV(G4:G21)</f>
         <v>17.025471114382317</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
+      <c r="H23" s="39">
+        <v>12.843935</v>
+      </c>
+      <c r="I23" s="39">
+        <v>18.575970099999999</v>
+      </c>
+      <c r="J23">
+        <f>STDEV(J4:J21)</f>
         <v>11.321071798494465</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
+      <c r="K23">
+        <f>STDEV(K4:K21)</f>
         <v>9.0203473695122547</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
+      <c r="L23">
+        <f>STDEV(L4:L21)</f>
         <v>11.519548602267365</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>12.843935014888025</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>18.575970140659372</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
         <v>10.677078252031311</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f>STDEV(N4:N21)</f>
+        <v>8.1731266966810203</v>
+      </c>
+      <c r="O23">
+        <f>STDEV(O4:O21)</f>
+        <v>9.5219045713904915</v>
+      </c>
+      <c r="P23">
+        <f>STDEV(P4:P21)</f>
         <v>7.3052492542463376</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="1"/>
+      <c r="Q23">
+        <f>STDEV(Q4:Q21)</f>
         <v>14.250146198080465</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="1"/>
+      <c r="R23">
+        <f>STDEV(R4:R21)</f>
         <v>11.923366415013282</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="1"/>
-        <v>8.1731266966810203</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="1"/>
-        <v>9.5219045713904915</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
         <v>13.277801022759755</v>
       </c>
     </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B28" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>3</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>4</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>7</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>9</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
+        <v>3</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>11</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>12</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>13</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" s="3">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>15</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3">
+        <v>3</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>16</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>17</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>18</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3">
+        <v>3</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="9">
+        <f t="shared" ref="B48:G48" si="2">AVERAGE(B30:B47)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="C48" s="9">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" si="2"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" si="2"/>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="10">
+        <f>AVERAGE(B48:G48)</f>
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="N2:S2"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4576,8 +4975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AF0819-4813-4E45-90A6-E27C8D1131B3}">
   <dimension ref="A1:BK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="J29" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10741,17 +11140,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
     <mergeCell ref="AU26:AW26"/>
     <mergeCell ref="AX26:AZ26"/>
     <mergeCell ref="AF25:AW25"/>
@@ -10768,6 +11156,17 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="Q2:U2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10779,7 +11178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C0FBDF-6F19-C941-9E0A-AD4220948F4F}">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="B50" zoomScale="111" zoomScaleNormal="320" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="111" zoomScaleNormal="320" workbookViewId="0">
       <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vuminhduc796/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vuminhduc796/Downloads/GPTVoiceTasker-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58A4FE8-8E16-5B4D-9E52-E5F258BEB854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9A82FF-E785-8846-A61F-F147C3A7E8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{8BEEF3A8-BB2E-F448-AB49-47C9A6F7F206}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" activeTab="3" xr2:uid="{8BEEF3A8-BB2E-F448-AB49-47C9A6F7F206}"/>
   </bookViews>
   <sheets>
     <sheet name="User Evaluation" sheetId="1" r:id="rId1"/>
     <sheet name="Quantitative" sheetId="3" r:id="rId2"/>
     <sheet name="Direct Invocation" sheetId="4" r:id="rId3"/>
+    <sheet name="AITW" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="318">
   <si>
     <t>Time taken to finish the task for each run</t>
   </si>
@@ -566,13 +567,439 @@
   </si>
   <si>
     <t>find nearest restaurant location</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Go to eBay</t>
+  </si>
+  <si>
+    <t>Search for pizza restaurants on Maps</t>
+  </si>
+  <si>
+    <t>Show me the alarms in the clock app</t>
+  </si>
+  <si>
+    <t>open a bookmark in the chrome app</t>
+  </si>
+  <si>
+    <t>check out phone information</t>
+  </si>
+  <si>
+    <t>check android version</t>
+  </si>
+  <si>
+    <t>Go to accessibility settings</t>
+  </si>
+  <si>
+    <t>Do I have any events this weekend?</t>
+  </si>
+  <si>
+    <t>Do I have any events today?</t>
+  </si>
+  <si>
+    <t>all mails in gmail</t>
+  </si>
+  <si>
+    <t>Open Chrome and go to settings</t>
+  </si>
+  <si>
+    <t>add a contact</t>
+  </si>
+  <si>
+    <t>Open Wikipedia</t>
+  </si>
+  <si>
+    <t>turn off javascript in the chrome app</t>
+  </si>
+  <si>
+    <t>Go to Reddit.com</t>
+  </si>
+  <si>
+    <t>Go to network settings</t>
+  </si>
+  <si>
+    <t>What's on my calendar tomorrow?</t>
+  </si>
+  <si>
+    <t>create a new album in the google photos</t>
+  </si>
+  <si>
+    <t>set the stopwatch</t>
+  </si>
+  <si>
+    <t>turn on wifi</t>
+  </si>
+  <si>
+    <t>Search for Italian restaurants on Maps</t>
+  </si>
+  <si>
+    <t>Open eBay</t>
+  </si>
+  <si>
+    <t>Go to Google maps</t>
+  </si>
+  <si>
+    <t>Open Google Maps</t>
+  </si>
+  <si>
+    <t>Open the web browser</t>
+  </si>
+  <si>
+    <t>Open wifi settings</t>
+  </si>
+  <si>
+    <t>turn on priority inbox in the gmail app</t>
+  </si>
+  <si>
+    <t>delete the emails in spam in the gmail app</t>
+  </si>
+  <si>
+    <t>toggle airplane mode</t>
+  </si>
+  <si>
+    <t>Go to Google</t>
+  </si>
+  <si>
+    <t>Open Chrome and go to the settings page</t>
+  </si>
+  <si>
+    <t>turn pop-ups on in chrome</t>
+  </si>
+  <si>
+    <t>turn off priority inbox in the gmail app</t>
+  </si>
+  <si>
+    <t>Set the phone to 'Do not disturb'.</t>
+  </si>
+  <si>
+    <t>Go to internet settings</t>
+  </si>
+  <si>
+    <t>turn notification dots on</t>
+  </si>
+  <si>
+    <t>When is my next meeting?</t>
+  </si>
+  <si>
+    <t>find snoozed emails in the gmail app</t>
+  </si>
+  <si>
+    <t>check storage</t>
+  </si>
+  <si>
+    <t>See recent photos</t>
+  </si>
+  <si>
+    <t>set the timer</t>
+  </si>
+  <si>
+    <t>Go to privacy settings</t>
+  </si>
+  <si>
+    <t>change the upload size in google photos</t>
+  </si>
+  <si>
+    <t>turn pop-ups off in chrome</t>
+  </si>
+  <si>
+    <t>change text size in settings app</t>
+  </si>
+  <si>
+    <t>turn on data saver in the chrome app</t>
+  </si>
+  <si>
+    <t>Open calendar and show me the second week of next month</t>
+  </si>
+  <si>
+    <t>Go to settings</t>
+  </si>
+  <si>
+    <t>delete browsing data in the chrome app</t>
+  </si>
+  <si>
+    <t>toggle notifications settings in the gmail app</t>
+  </si>
+  <si>
+    <t>Open sound settings</t>
+  </si>
+  <si>
+    <t>Open settings</t>
+  </si>
+  <si>
+    <t>toggle data saver in the chrome app</t>
+  </si>
+  <si>
+    <t>Open battery settings</t>
+  </si>
+  <si>
+    <t>change notifications settings</t>
+  </si>
+  <si>
+    <t>Go to ESPN.com</t>
+  </si>
+  <si>
+    <t>open the mobile data screen to see how much data has been used</t>
+  </si>
+  <si>
+    <t>turn off airplane mode</t>
+  </si>
+  <si>
+    <t>Open display settings</t>
+  </si>
+  <si>
+    <t>see tabs open on other devices in the chrome app</t>
+  </si>
+  <si>
+    <t>turn vacation reply on in the gmail app</t>
+  </si>
+  <si>
+    <t>What is the recent news?</t>
+  </si>
+  <si>
+    <t>change keyboard looks</t>
+  </si>
+  <si>
+    <t>Go to wifi settings</t>
+  </si>
+  <si>
+    <t>allow notifications from all sites in the chrome app</t>
+  </si>
+  <si>
+    <t>turn off location history</t>
+  </si>
+  <si>
+    <t>open android settings</t>
+  </si>
+  <si>
+    <t>turn off smart reply in the gmail app</t>
+  </si>
+  <si>
+    <t>open chrome privacy settings</t>
+  </si>
+  <si>
+    <t>open settings on google maps</t>
+  </si>
+  <si>
+    <t>check the backup settings in the google photos</t>
+  </si>
+  <si>
+    <t>go to notification settings</t>
+  </si>
+  <si>
+    <t>open notification settings</t>
+  </si>
+  <si>
+    <t>turn off picture-in-picture</t>
+  </si>
+  <si>
+    <t>open amazon</t>
+  </si>
+  <si>
+    <t>allow cookies in the chrome app</t>
+  </si>
+  <si>
+    <t>open yahoo.com</t>
+  </si>
+  <si>
+    <t>go to sound settings</t>
+  </si>
+  <si>
+    <t>find which apps use the phone's location</t>
+  </si>
+  <si>
+    <t>empty trash in the gmail app</t>
+  </si>
+  <si>
+    <t>find coffee shops on maps</t>
+  </si>
+  <si>
+    <t>turn on location history</t>
+  </si>
+  <si>
+    <t>change notification settings in the gmail app</t>
+  </si>
+  <si>
+    <t>find photos in the google photos app</t>
+  </si>
+  <si>
+    <t>stop showing notifications on the lock screen</t>
+  </si>
+  <si>
+    <t>turn on bluetooth scan</t>
+  </si>
+  <si>
+    <t>add a contact in the contacts app</t>
+  </si>
+  <si>
+    <t>open google chrome and click the shortcut for amazon.com</t>
+  </si>
+  <si>
+    <t>see sites visited before in the chrome app</t>
+  </si>
+  <si>
+    <t>search for mexican restaurants on maps</t>
+  </si>
+  <si>
+    <t>open sync settings in chrome</t>
+  </si>
+  <si>
+    <t>open espn.com</t>
+  </si>
+  <si>
+    <t>open reddit.com</t>
+  </si>
+  <si>
+    <t>turn on showing notifications on the lock screen</t>
+  </si>
+  <si>
+    <t>empty trash in google photos</t>
+  </si>
+  <si>
+    <t>check the news</t>
+  </si>
+  <si>
+    <t>go to location settings</t>
+  </si>
+  <si>
+    <t>change the clock display to show seconds</t>
+  </si>
+  <si>
+    <t>check data usage</t>
+  </si>
+  <si>
+    <t>turn off wifi</t>
+  </si>
+  <si>
+    <t>open google chrome and open the bookmarks view</t>
+  </si>
+  <si>
+    <t>open maps and search for coffee</t>
+  </si>
+  <si>
+    <t>open google</t>
+  </si>
+  <si>
+    <t>open internet settings</t>
+  </si>
+  <si>
+    <t>turn off sleep mode</t>
+  </si>
+  <si>
+    <t>toggle javascript in the chrome app</t>
+  </si>
+  <si>
+    <t>open privacy settings</t>
+  </si>
+  <si>
+    <t>change your default location settings in chrome</t>
+  </si>
+  <si>
+    <t>show emergency info</t>
+  </si>
+  <si>
+    <t>go to yahoo.com</t>
+  </si>
+  <si>
+    <t>clear all cookies in the chrome app</t>
+  </si>
+  <si>
+    <t>remove spam from my inbox in the gmail app</t>
+  </si>
+  <si>
+    <t>open youtube and go to the subscriptions tab</t>
+  </si>
+  <si>
+    <t>what is the news today?</t>
+  </si>
+  <si>
+    <t>go to display settings</t>
+  </si>
+  <si>
+    <t>change the clock display to analog</t>
+  </si>
+  <si>
+    <t>turn off location</t>
+  </si>
+  <si>
+    <t>open the map</t>
+  </si>
+  <si>
+    <t>search for vegetarian restaurants on maps</t>
+  </si>
+  <si>
+    <t>toggle sleep mode</t>
+  </si>
+  <si>
+    <t>refresh tabs in the chrome app</t>
+  </si>
+  <si>
+    <t>open the calendar app, open the side menu, and click the "day" option</t>
+  </si>
+  <si>
+    <t>open device folders in google photos</t>
+  </si>
+  <si>
+    <t>go to cnn.com</t>
+  </si>
+  <si>
+    <t>go to wikipedia</t>
+  </si>
+  <si>
+    <t>open maps</t>
+  </si>
+  <si>
+    <t>show me recent news</t>
+  </si>
+  <si>
+    <t>go to amazon</t>
+  </si>
+  <si>
+    <t>open location settings</t>
+  </si>
+  <si>
+    <t>open network settings</t>
+  </si>
+  <si>
+    <t>open my contact list</t>
+  </si>
+  <si>
+    <t>toggle wifi</t>
+  </si>
+  <si>
+    <t>manage bookmarks in the chrome app</t>
+  </si>
+  <si>
+    <t>turn on sleep mode</t>
+  </si>
+  <si>
+    <t>check the weather</t>
+  </si>
+  <si>
+    <t>show me productivity apps on the play store</t>
+  </si>
+  <si>
+    <t>open a new tab in the chrome app</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -632,6 +1059,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -768,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,6 +1252,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -844,25 +1298,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3369,9 +3807,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3409,7 +3847,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3515,7 +3953,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3657,7 +4095,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3667,7 +4105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4CCD15-9F4D-C94F-AA46-DB482A0526EA}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -3677,53 +4115,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="24" t="s">
+      <c r="B2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
       <c r="T2" s="7" t="s">
         <v>11</v>
       </c>
@@ -3748,10 +4186,10 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="34" t="s">
+      <c r="H3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="25" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -3799,10 +4237,10 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="35">
+      <c r="H4" s="26">
         <v>132</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3">
@@ -3837,8 +4275,8 @@
         <v>135</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36">
+      <c r="H5" s="26"/>
+      <c r="I5" s="27">
         <v>158</v>
       </c>
       <c r="J5" s="3"/>
@@ -3875,8 +4313,8 @@
       <c r="G6" s="3">
         <v>190</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="3">
         <v>134</v>
       </c>
@@ -3913,8 +4351,8 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36">
+      <c r="H7" s="26"/>
+      <c r="I7" s="27">
         <v>174</v>
       </c>
       <c r="J7" s="3"/>
@@ -3951,8 +4389,8 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3">
@@ -3989,10 +4427,10 @@
       <c r="G9" s="3">
         <v>172</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="26">
         <v>142</v>
       </c>
-      <c r="I9" s="36"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="3">
         <v>142</v>
       </c>
@@ -4027,8 +4465,8 @@
       <c r="G10" s="3">
         <v>196</v>
       </c>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36">
+      <c r="H10" s="26"/>
+      <c r="I10" s="27">
         <v>182</v>
       </c>
       <c r="J10" s="3"/>
@@ -4065,10 +4503,10 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="35">
+      <c r="H11" s="26">
         <v>163</v>
       </c>
-      <c r="I11" s="36"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3">
@@ -4103,8 +4541,8 @@
         <v>151</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="3">
         <v>156</v>
       </c>
@@ -4141,10 +4579,10 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="35">
+      <c r="H13" s="26">
         <v>126</v>
       </c>
-      <c r="I13" s="36"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3">
@@ -4179,8 +4617,8 @@
         <v>137</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36">
+      <c r="H14" s="26"/>
+      <c r="I14" s="27">
         <v>157</v>
       </c>
       <c r="J14" s="3"/>
@@ -4217,8 +4655,8 @@
       <c r="G15" s="3">
         <v>201</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="3">
         <v>162</v>
       </c>
@@ -4255,8 +4693,8 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36">
+      <c r="H16" s="26"/>
+      <c r="I16" s="27">
         <v>128</v>
       </c>
       <c r="J16" s="3"/>
@@ -4293,8 +4731,8 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3">
@@ -4331,10 +4769,10 @@
       <c r="G18" s="3">
         <v>209</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="26">
         <v>138</v>
       </c>
-      <c r="I18" s="36"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="3">
         <v>135</v>
       </c>
@@ -4369,8 +4807,8 @@
       <c r="G19" s="3">
         <v>222</v>
       </c>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36">
+      <c r="H19" s="26"/>
+      <c r="I19" s="27">
         <v>163</v>
       </c>
       <c r="J19" s="3"/>
@@ -4407,10 +4845,10 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="35">
+      <c r="H20" s="26">
         <v>146</v>
       </c>
-      <c r="I20" s="36"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3">
@@ -4445,8 +4883,8 @@
         <v>132</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="3">
         <v>148</v>
       </c>
@@ -4494,13 +4932,13 @@
         <v>136.66666666666666</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" ref="G22:T22" si="0">AVERAGE(G4:G21)</f>
+        <f t="shared" ref="G22:S22" si="0">AVERAGE(G4:G21)</f>
         <v>198.33333333333334</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="28">
         <v>141.16999999999999</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="29">
         <v>160.33000000000001</v>
       </c>
       <c r="J22" s="9">
@@ -4569,13 +5007,13 @@
         <v>10.745541711178021</v>
       </c>
       <c r="G23">
-        <f t="shared" ref="G23:T23" si="1">STDEV(G4:G21)</f>
+        <f t="shared" ref="G23:S23" si="1">STDEV(G4:G21)</f>
         <v>17.025471114382317</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="30">
         <v>12.843935</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="30">
         <v>18.575970099999999</v>
       </c>
       <c r="J23">
@@ -4620,14 +5058,14 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
@@ -5027,64 +5465,64 @@
     </row>
     <row r="2" spans="1:63" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30" t="s">
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30" t="s">
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30" t="s">
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30" t="s">
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
       <c r="AR2" s="11" t="s">
         <v>20</v>
       </c>
@@ -7732,143 +8170,143 @@
       </c>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="25" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="25"/>
-      <c r="AQ25" s="25"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="25"/>
-      <c r="AU25" s="25"/>
-      <c r="AV25" s="25"/>
-      <c r="AW25" s="25"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="32"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="32"/>
+      <c r="AW25" s="32"/>
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25" t="s">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25" t="s">
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25" t="s">
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25" t="s">
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25" t="s">
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25" t="s">
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="25" t="s">
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25" t="s">
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25" t="s">
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25" t="s">
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25" t="s">
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="25" t="s">
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="AP26" s="25"/>
-      <c r="AQ26" s="25"/>
-      <c r="AR26" s="25" t="s">
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="25"/>
-      <c r="AU26" s="25" t="s">
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="AV26" s="25"/>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="25"/>
-      <c r="AY26" s="25"/>
-      <c r="AZ26" s="25"/>
+      <c r="AV26" s="32"/>
+      <c r="AW26" s="32"/>
+      <c r="AX26" s="32"/>
+      <c r="AY26" s="32"/>
+      <c r="AZ26" s="32"/>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
@@ -11140,6 +11578,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AF2:AK2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
     <mergeCell ref="AU26:AW26"/>
     <mergeCell ref="AX26:AZ26"/>
     <mergeCell ref="AF25:AW25"/>
@@ -11156,17 +11605,6 @@
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:G26"/>
     <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="Q2:U2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13072,12 +13510,12 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="32"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="39"/>
       <c r="E77" s="18">
         <f>SUM(E78:E79)</f>
         <v>75</v>
@@ -13089,12 +13527,12 @@
       <c r="H77" s="23"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="31" t="s">
+      <c r="A78" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="32"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="39"/>
       <c r="E78" s="18">
         <f>COUNTIF(E2:E76,"=Y")</f>
         <v>63</v>
@@ -13106,12 +13544,12 @@
       <c r="H78" s="23"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="32"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="39"/>
       <c r="E79" s="18">
         <f>COUNTIF(E2:E76,"=n")</f>
         <v>12</v>
@@ -13123,12 +13561,12 @@
       <c r="H79" s="23"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="31" t="s">
+      <c r="A80" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="32"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="39"/>
       <c r="E80" s="18">
         <f>E78/E77</f>
         <v>0.84</v>
@@ -13163,4 +13601,1609 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657FFB84-7679-A744-BBE3-F23242F39F4F}">
+  <dimension ref="A1:C144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>236</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>238</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>245</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>246</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>247</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>248</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>249</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>253</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>259</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>260</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>261</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>265</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>266</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>267</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>268</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>271</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>273</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>274</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>275</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>277</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>278</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>279</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>280</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>281</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>282</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>283</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>284</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>285</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>286</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>287</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>288</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>289</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>290</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>291</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>292</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>293</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>294</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>295</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>296</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>297</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>298</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>299</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>300</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>301</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>302</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>303</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>304</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>305</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>306</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>307</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>308</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>309</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>310</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>311</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>312</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>313</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>314</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>315</v>
+      </c>
+      <c r="B142">
+        <f>SUM(B2:B141)</f>
+        <v>120</v>
+      </c>
+      <c r="C142">
+        <f>SUM(C2:C141)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>316</v>
+      </c>
+      <c r="B143">
+        <f>COUNT(B2:B141)</f>
+        <v>140</v>
+      </c>
+      <c r="C143">
+        <f>COUNT(C2:C141)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>317</v>
+      </c>
+      <c r="B144">
+        <f>B143-B142</f>
+        <v>20</v>
+      </c>
+      <c r="C144">
+        <f>C143-C142</f>
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>